--- a/config/radio_st_list.xlsx
+++ b/config/radio_st_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\takato\Git\my_japan_radio_weather_map\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ED2E6-1BE9-44D8-8CFE-1C7F5BA84DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D396BE-C8D0-4505-8ACD-29D942B4FDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>はこだて</t>
   </si>
   <si>
-    <t>浦川</t>
-  </si>
-  <si>
     <t>うらかわ</t>
   </si>
   <si>
@@ -367,6 +364,13 @@
     <t>上海</t>
     <rPh sb="0" eb="2">
       <t>シャンハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浦河</t>
+    <rPh sb="1" eb="2">
+      <t>カワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -756,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1469,10 +1473,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
       </c>
       <c r="D28">
         <v>42.166666666666657</v>
@@ -1495,10 +1499,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
       </c>
       <c r="D29">
         <v>43.333333333333343</v>
@@ -1521,10 +1525,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
       </c>
       <c r="D30">
         <v>45.416666666666657</v>
@@ -1547,10 +1551,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
       </c>
       <c r="D31">
         <v>49.216666666666669</v>
@@ -1570,10 +1574,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
       </c>
       <c r="D32">
         <v>50.68333333333333</v>
@@ -1593,10 +1597,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
       </c>
       <c r="D33">
         <v>48.516666666666673</v>
@@ -1616,10 +1620,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
       </c>
       <c r="D34">
         <v>44.366666666666667</v>
@@ -1639,10 +1643,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
       </c>
       <c r="D35">
         <v>43.116666666666667</v>
@@ -1662,10 +1666,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
       </c>
       <c r="D36">
         <v>37.56666666666667</v>
@@ -1685,10 +1689,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
       <c r="D37">
         <v>37.483333333333327</v>
@@ -1708,10 +1712,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
       </c>
       <c r="D38">
         <v>35.1</v>
@@ -1731,10 +1735,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
       </c>
       <c r="D39">
         <v>34.783333333333331</v>
@@ -1754,10 +1758,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
       </c>
       <c r="D40">
         <v>33.516666666666673</v>
@@ -1777,10 +1781,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
       </c>
       <c r="D41">
         <v>25.033333333333331</v>
@@ -1800,10 +1804,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
       </c>
       <c r="D42">
         <v>22</v>
@@ -1823,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
       </c>
       <c r="D43">
         <v>43.9</v>
@@ -1846,10 +1850,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
       </c>
       <c r="D44">
         <v>39.93333333333333</v>
@@ -1869,10 +1873,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
       </c>
       <c r="D45">
         <v>38.9</v>
@@ -1892,10 +1896,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>36.06666666666667</v>
@@ -1915,10 +1919,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>31.4</v>
@@ -1938,10 +1942,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
       </c>
       <c r="D48">
         <v>30.616666666666671</v>
@@ -1961,10 +1965,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
       </c>
       <c r="D49">
         <v>24.483333333333331</v>
@@ -1984,10 +1988,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
       </c>
       <c r="D50">
         <v>22.316666666666659</v>
@@ -2007,10 +2011,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
       </c>
       <c r="D51">
         <v>20.45</v>
@@ -2030,10 +2034,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
       </c>
       <c r="D52">
         <v>14.58333333333333</v>
@@ -2053,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
       </c>
       <c r="D53">
         <v>27.083333333333329</v>
@@ -2079,10 +2083,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
         <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
       </c>
       <c r="D54">
         <v>24.3</v>
